--- a/va_facility_data_2025-02-20/White River Junction VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''White%20River%20Junction%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/White River Junction VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''White%20River%20Junction%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R94a8365992e94c10978a51e981c5b765"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R0f503d3a9f564d5a9cd398342ccb44db"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R758069c1d84944a0abfa1da2d33e4e8d"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rd41b67cd4870464e9e4545de1207536b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R85aabb3c744d4b5bacc14d56e63e1ba1"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Ra950d307448e46eaa33413e672477185"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R7fd0a911b1974a3a98de2099576ed2b4"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R0ded08a7283e4eff8c5b234b04681838"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R9f70e179bff54f90b8b3511639902cf9"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rf587e3ebc7054ad4b7b78a780213d893"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R31e551ae31a2407c99ecec7ec1f01e72"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9a6ed9adf85a4257926bca543d88da9f"/>
   </x:sheets>
 </x:workbook>
 </file>
